--- a/data/trans_camb/P16A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 1,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 0,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 0,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 1,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 1,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 0,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 0,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 0,95</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,71%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,31; 19,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,41; 39,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,47; 83,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,65; 42,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,68; 34,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,67; 63,07</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 2,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 1,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 1,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 3,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; 0,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 0,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 2,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 0,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 0,65</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,55%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-58,34; 580,25</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,51; 816,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,77; 108,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,45; 3,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,55; 24,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,32; 110,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,85; 22,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,58; 39,43</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; -0,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; -0,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 0,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 4,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 2,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 1,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 1,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 0,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 0,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,75%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,1; -3,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,77; 1,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,82; 61,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,44; 215,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,07; 135,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,03; 61,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,93; 94,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,3; 43,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,32; 17,54</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 0,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 0,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 2,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 3,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 2,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 3,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 1,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 0,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,99</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,58%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,93%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,85; 93,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,72; 109,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,78; 213,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,98; 100,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,74; 76,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,61; 110,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,24; 51,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,19; 42,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,44; 93,63</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; -0,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 0,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 2,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; 2,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; -0,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 2,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 0,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,3; -0,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 1,78</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,86%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,89%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,38%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,91%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,21; -6,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,84; 34,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,68; 143,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,96; 52,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,86; 1,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; 57,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,21; 14,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,76; -7,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,03; 45,75</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,64</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 0,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; -0,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,3; -0,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 4,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,73; -0,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; 1,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 1,84</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,94; -0,84</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 0,43</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,9%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,73%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,56%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,19%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,43%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,22%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,49; 13,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,99; -7,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,84; -4,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,79; 53,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,4; 0,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,64; 21,54</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,61; 28,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,75; -13,54</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,59; 6,27</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; -0,23</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; -0,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 0,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; -0,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 0,84</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 0,57</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; -0,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,5</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,44%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,92%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,96%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,8%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,18%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,02; -10,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,34; -16,04</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,74; 27,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; 37,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,43; -2,8</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,09; 18,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,28; 16,09</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,26; -13,36</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,86; 14,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-1,07</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,41</t>
+          <t>-0,91; 1,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,48</t>
+          <t>-4,51; 1,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,95</t>
+          <t>-2,44; 0,78</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,7%</t>
+          <t>-18,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,58%</t>
+          <t>-47,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-44,71%</t>
+          <t>-47,28%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,47; 83,18</t>
+          <t>-87,97; 86,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-86,67; 63,07</t>
+          <t>-87,37; 53,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,84</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,01</t>
+          <t>-1,04; 1,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,76</t>
+          <t>-4,28; 0,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,65</t>
+          <t>-2,01; 0,57</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-42,06%</t>
+          <t>-40,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,36%</t>
+          <t>-41,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-30,55%</t>
+          <t>-33,47%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-96,51; 816,56</t>
+          <t>-96,36; 824,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,55; 24,41</t>
+          <t>-74,32; 21,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 39,43</t>
+          <t>-67,08; 31,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 0,66</t>
+          <t>-2,56; 0,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,21</t>
+          <t>-2,14; 1,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,31</t>
+          <t>-1,97; 0,3</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-42,15%</t>
+          <t>-43,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,7%</t>
+          <t>-18,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-28,75%</t>
+          <t>-28,65%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,82; 61,7</t>
+          <t>-81,42; 59,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,03; 61,59</t>
+          <t>-52,3; 64,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 17,54</t>
+          <t>-59,12; 17,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,14 +1290,14 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,37</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,11</t>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,01</t>
+          <t>-1,9; 1,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,0</t>
+          <t>-1,44; 3,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,99</t>
+          <t>-1,56; 1,6</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,78; 213,75</t>
+          <t>-69,72; 138,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 110,77</t>
+          <t>-26,16; 114,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 93,63</t>
+          <t>-40,18; 72,26</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,32</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,56</t>
+          <t>-2,22; 2,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,8</t>
+          <t>-3,14; 2,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,78</t>
+          <t>-1,92; 1,9</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>6,27%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-46,68; 143,77</t>
+          <t>-44,87; 155,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 57,33</t>
+          <t>-34,16; 59,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 45,75</t>
+          <t>-29,45; 47,38</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-3,81</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,28</t>
+          <t>-4,48; 1,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,8; -0,54</t>
+          <t>-5,2; 0,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -0,34</t>
+          <t>-3,8; 1,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 4,15</t>
+          <t>-7,3; 1,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -0,05</t>
+          <t>-8,82; -0,88</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 1,59</t>
+          <t>-12,08; -2,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,84</t>
+          <t>-4,68; 0,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,94; -0,84</t>
+          <t>-6,3; -1,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,43</t>
+          <t>-7,26; -1,53</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-42,9%</t>
+          <t>-22,08%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-48,73%</t>
+          <t>-50,5%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-42,17%</t>
+          <t>-20,46%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>-25,38%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-31,56%</t>
+          <t>-46,13%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-12,79%</t>
+          <t>-60,06%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>-24,88%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-37,43%</t>
+          <t>-47,66%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-21,22%</t>
+          <t>-49,11%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-72,49; 13,66</t>
+          <t>-73,97; 78,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-72,99; -7,88</t>
+          <t>-86,29; 25,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-64,84; -4,14</t>
+          <t>-60,26; 75,49</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 53,43</t>
+          <t>-55,89; 19,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-54,4; 0,05</t>
+          <t>-67,42; -7,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 21,54</t>
+          <t>-86,52; -31,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 28,93</t>
+          <t>-50,52; 14,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-55,75; -13,54</t>
+          <t>-67,37; -19,3</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 6,27</t>
+          <t>-74,53; -24,71</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,43</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,58; -0,23</t>
+          <t>-9,8; 0,13</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,68; -0,29</t>
+          <t>-9,53; -0,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,49</t>
+          <t>-9,65; -1,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,79</t>
+          <t>0,42; 9,7</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,24; -0,18</t>
+          <t>-5,0; 3,36</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,84</t>
+          <t>0,28; 7,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,57</t>
+          <t>-2,19; 4,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,66; -0,45</t>
+          <t>-4,97; 1,05</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,5</t>
+          <t>-2,81; 3,01</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-40,44%</t>
+          <t>-57,82%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-42,92%</t>
+          <t>-48,55%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-55,8%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-21,96%</t>
+          <t>-9,63%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>52,33%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-27,8%</t>
+          <t>-26,15%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-86,41; 12,52</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-77,48; 3,09</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-78,09; -12,79</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 194,55</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-53,06; 63,84</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 156,17</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-23,1; 78,25</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-54,38; 17,65</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-28,52; 53,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; -0,23</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; -0,29</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 0,46</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 1,79</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; -0,18</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 0,62</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 0,57</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; -0,45</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 0,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-40,44%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-42,92%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-10,97%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-21,96%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-6,85%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-2,31%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-27,8%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-7,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-61,02; -10,44</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-63,34; -16,04</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-32,74; 27,58</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-40,11; 23,16</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-8,75; 37,27</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-37,43; -2,8</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-20,09; 18,03</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-26,28; 13,01</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-18,28; 16,09</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-39,26; -13,36</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-17,86; 14,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-25,23; 8,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,58</t>
+          <t>-0,68; 1,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,32</t>
+          <t>-1,11; 0,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,4</t>
+          <t>-0,91; 1,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,34</t>
+          <t>-4,41; 0,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,11</t>
+          <t>-3,7; 1,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,64</t>
+          <t>-4,38; 2,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,55</t>
+          <t>-2,04; 0,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,5</t>
+          <t>-2,0; 0,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,78</t>
+          <t>-2,34; 0,78</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-78,31; 19,74</t>
+          <t>-80,39; 14,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 39,23</t>
+          <t>-67,57; 49,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,97; 86,38</t>
+          <t>-86,95; 95,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,65; 42,63</t>
+          <t>-71,15; 31,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,68; 34,55</t>
+          <t>-70,04; 44,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,37; 53,58</t>
+          <t>-84,18; 70,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,08</t>
+          <t>-0,41; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,27</t>
+          <t>-0,67; 1,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,05</t>
+          <t>-1,06; 1,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,64</t>
+          <t>-1,48; 3,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,16</t>
+          <t>-4,12; 0,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,62</t>
+          <t>-4,16; 0,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,12</t>
+          <t>-0,42; 2,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 0,42</t>
+          <t>-1,82; 0,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,57</t>
+          <t>-2,08; 0,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,34; 580,25</t>
+          <t>-47,68; 585,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,84; 376,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-96,36; 824,63</t>
+          <t>-95,68; 1053,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 108,34</t>
+          <t>-26,61; 104,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,45; 3,88</t>
+          <t>-70,09; 10,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,32; 21,76</t>
+          <t>-73,94; 25,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 110,21</t>
+          <t>-15,58; 118,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,85; 22,39</t>
+          <t>-59,13; 28,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,08; 31,31</t>
+          <t>-65,31; 27,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,21</t>
+          <t>-3,21; -0,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; -0,33</t>
+          <t>-3,07; -0,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,64</t>
+          <t>-2,6; 0,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,92</t>
+          <t>0,43; 5,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,92</t>
+          <t>-1,36; 2,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,27</t>
+          <t>-2,25; 1,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,91</t>
+          <t>-0,69; 1,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,91</t>
+          <t>-1,62; 0,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,3</t>
+          <t>-1,96; 0,44</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-92,1; -3,8</t>
+          <t>-89,59; 9,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-92,77; 1,49</t>
+          <t>-92,71; 3,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,42; 59,44</t>
+          <t>-81,45; 58,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 215,64</t>
+          <t>4,23; 211,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 135,1</t>
+          <t>-30,78; 126,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,3; 64,21</t>
+          <t>-54,54; 50,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 94,8</t>
+          <t>-21,72; 94,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 43,68</t>
+          <t>-48,46; 41,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,12; 17,71</t>
+          <t>-56,64; 21,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,47</t>
+          <t>-2,45; 0,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,67</t>
+          <t>-2,07; 0,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,38</t>
+          <t>-1,96; 1,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 3,03</t>
+          <t>-2,32; 3,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,21</t>
+          <t>-2,52; 2,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,08</t>
+          <t>-1,19; 3,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,04</t>
+          <t>-1,6; 1,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,84</t>
+          <t>-1,76; 0,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,6</t>
+          <t>-1,72; 1,56</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-85,85; 93,83</t>
+          <t>-88,7; 79,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-82,72; 109,44</t>
+          <t>-83,39; 104,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,72; 138,78</t>
+          <t>-70,35; 149,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 100,21</t>
+          <t>-42,69; 100,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 76,67</t>
+          <t>-45,89; 85,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 114,45</t>
+          <t>-21,29; 113,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 51,04</t>
+          <t>-44,72; 62,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,19; 42,45</t>
+          <t>-45,58; 47,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,18; 72,26</t>
+          <t>-43,31; 69,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,87; -0,8</t>
+          <t>-4,73; -0,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 0,49</t>
+          <t>-4,25; 0,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,76</t>
+          <t>-2,13; 2,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,53</t>
+          <t>-4,4; 2,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; -0,12</t>
+          <t>-6,07; 0,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,92</t>
+          <t>-2,94; 3,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,43</t>
+          <t>-3,74; 0,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,3; -0,42</t>
+          <t>-4,58; -0,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,9</t>
+          <t>-1,91; 2,12</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-95,21; -6,79</t>
+          <t>-100,0; -22,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,84; 34,51</t>
+          <t>-85,44; 45,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 155,99</t>
+          <t>-43,85; 152,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-48,96; 52,55</t>
+          <t>-51,02; 51,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-70,86; 1,23</t>
+          <t>-68,22; 7,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 59,69</t>
+          <t>-32,77; 64,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 14,53</t>
+          <t>-58,7; 9,39</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-66,76; -7,85</t>
+          <t>-68,85; -9,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 47,38</t>
+          <t>-28,04; 54,65</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,92</t>
+          <t>-4,44; 2,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,54</t>
+          <t>-5,0; 0,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,65</t>
+          <t>-4,33; 1,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 1,84</t>
+          <t>-7,49; 1,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,82; -0,88</t>
+          <t>-8,8; -1,03</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,08; -2,86</t>
+          <t>-11,84; -2,82</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 0,86</t>
+          <t>-4,68; 1,38</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -1,42</t>
+          <t>-6,22; -1,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -1,53</t>
+          <t>-6,89; -1,46</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-73,97; 78,87</t>
+          <t>-73,14; 110,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-86,29; 25,76</t>
+          <t>-82,36; 51,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-60,26; 75,49</t>
+          <t>-65,22; 68,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 19,44</t>
+          <t>-57,42; 19,46</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-67,42; -7,51</t>
+          <t>-66,49; -8,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-86,52; -31,02</t>
+          <t>-84,8; -29,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-50,52; 14,06</t>
+          <t>-50,85; 23,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-67,37; -19,3</t>
+          <t>-66,64; -14,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-74,53; -24,71</t>
+          <t>-73,05; -23,02</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 0,13</t>
+          <t>-10,27; 0,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,53; -0,32</t>
+          <t>-8,94; 0,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -1,12</t>
+          <t>-9,77; -0,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,42; 9,7</t>
+          <t>0,63; 9,75</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 3,36</t>
+          <t>-4,67; 3,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,28; 7,28</t>
+          <t>-0,31; 7,56</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,66</t>
+          <t>-2,41; 4,6</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,05</t>
+          <t>-5,11; 1,05</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,01</t>
+          <t>-2,68; 2,89</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-86,41; 12,52</t>
+          <t>-85,77; 20,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-77,48; 3,09</t>
+          <t>-76,69; 5,37</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-78,09; -12,79</t>
+          <t>-78,36; -9,28</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,21; 194,55</t>
+          <t>4,14; 201,81</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-53,06; 63,84</t>
+          <t>-50,93; 73,41</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,63; 156,17</t>
+          <t>-3,4; 154,85</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 78,25</t>
+          <t>-26,68; 81,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-54,38; 17,65</t>
+          <t>-54,41; 18,89</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 53,88</t>
+          <t>-27,66; 49,35</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,58; -0,23</t>
+          <t>-1,57; -0,23</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,68; -0,29</t>
+          <t>-1,64; -0,32</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,46</t>
+          <t>-0,93; 0,5</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,79</t>
+          <t>-0,43; 1,81</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,24; -0,18</t>
+          <t>-2,23; -0,04</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,62</t>
+          <t>-1,62; 0,65</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,57</t>
+          <t>-0,73; 0,58</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,66; -0,45</t>
+          <t>-1,65; -0,46</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,31</t>
+          <t>-0,99; 0,37</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-61,02; -10,44</t>
+          <t>-59,11; -11,67</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-63,34; -16,04</t>
+          <t>-61,24; -16,92</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 23,16</t>
+          <t>-36,26; 27,09</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 37,27</t>
+          <t>-7,92; 37,79</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -2,8</t>
+          <t>-37,67; 0,45</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 13,01</t>
+          <t>-27,36; 13,09</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 16,09</t>
+          <t>-17,87; 17,27</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-39,26; -13,36</t>
+          <t>-40,7; -12,68</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 8,76</t>
+          <t>-24,21; 10,85</t>
         </is>
       </c>
     </row>
